--- a/project/Web Resource Table.xlsx
+++ b/project/Web Resource Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\NTUT-chatbot\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC3BD1-69F0-47E8-9E15-1980152CF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75BB003-BA13-4138-B4A8-DC131E2B2943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E05C2CF-95B1-4141-A5A8-F94BD3FC688E}"/>
   </bookViews>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "product_id": String, "state": Integer }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新訂單</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +334,9 @@
   <si>
     <t>Web Resource Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "product_id": String, "is_prepared": Boolean, "is_finished": Boolean, "is_canceled": Boolean }</t>
   </si>
 </sst>
 </file>
@@ -397,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,28 +480,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +556,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,14 +582,13 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -590,6 +611,35 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -651,13 +701,14 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -680,35 +731,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -752,6 +774,29 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -765,6 +810,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -791,36 +843,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -835,7 +857,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A344FE03-CBE3-483E-A95C-0C4EEF39552C}" name="表格3" displayName="表格3" ref="A2:G21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A344FE03-CBE3-483E-A95C-0C4EEF39552C}" name="表格3" displayName="表格3" ref="A2:G21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A2:G21" xr:uid="{A344FE03-CBE3-483E-A95C-0C4EEF39552C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -847,12 +869,12 @@
   </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3D31028B-B9FE-416E-95FC-AB913342010E}" name="系統功能" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6C732B7C-811D-4CDC-9A2F-D7DC47632D7B}" name="URL" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{874487A6-E3D2-4E56-ABD3-F116834D71EC}" name="Resource" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{4A740E69-4E3D-426C-893D-378A417ED088}" name="Input(query)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{1F0AA937-C6B9-4C77-BE4D-B07B5496ACA9}" name="Input(body)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6C732B7C-811D-4CDC-9A2F-D7DC47632D7B}" name="URL" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{874487A6-E3D2-4E56-ABD3-F116834D71EC}" name="Resource" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{4A740E69-4E3D-426C-893D-378A417ED088}" name="Input(query)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1F0AA937-C6B9-4C77-BE4D-B07B5496ACA9}" name="Input(body)" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{AD53094B-2943-47D1-8BD2-B29505A85D22}" name="Output" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EB7CBC5E-7F12-473F-9C21-ED13E43DDB53}" name="權限" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{EB7CBC5E-7F12-473F-9C21-ED13E43DDB53}" name="權限" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.TEXTJOIN("", FALSE, "@jwt_required")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1159,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B894AE35-ED04-4602-86C7-0D3626824799}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,415 +1198,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="str">
+      <c r="D5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required(fresh=True)", "@roles_accepted")</f>
         <v>@jwt_required(fresh=True), @roles_accepted</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="3" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="str">
+      <c r="D7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9" t="str">
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="15" t="str">
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="14" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_required")</f>
         <v>@jwt_required, @roles_required</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="15" t="str">
+      <c r="G11" s="14" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_required")</f>
         <v>@jwt_required, @roles_required</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="G12" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_required")</f>
         <v>@jwt_required, @roles_required</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="9" t="str">
+      <c r="G13" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_required")</f>
         <v>@jwt_required, @roles_required</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9" t="str">
+      <c r="D14" s="3"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="12" t="str">
+      <c r="G16" s="11" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9" t="str">
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="9" t="str">
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_required")</f>
         <v>@jwt_required, @roles_required</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_required")</f>
         <v>@jwt_required, @roles_required</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9" t="str">
+      <c r="D20" s="3"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="9" t="str">
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="8" t="str">
         <f>_xlfn.TEXTJOIN(", ", FALSE, "@jwt_required", "@roles_accepted")</f>
         <v>@jwt_required, @roles_accepted</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
